--- a/Documentation/Lab 1.1 Prep & Analysis/UofS Website User Experience.xlsx
+++ b/Documentation/Lab 1.1 Prep & Analysis/UofS Website User Experience.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="48">
   <si>
     <t>Utility</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Layout</t>
   </si>
   <si>
-    <t>Overall Look</t>
-  </si>
-  <si>
     <t>Content</t>
   </si>
   <si>
@@ -54,41 +51,125 @@
     <t>Current Students</t>
   </si>
   <si>
-    <t>Media</t>
-  </si>
-  <si>
     <t>Liked</t>
   </si>
   <si>
     <t>Disliked</t>
   </si>
   <si>
-    <t>Not Represented</t>
-  </si>
-  <si>
-    <t>Relevant Pages to Enhance</t>
-  </si>
-  <si>
-    <t>Very informative and useful</t>
-  </si>
-  <si>
     <t>Easy to learn about programs, tution, registration, etc.</t>
   </si>
   <si>
-    <t>Not easy to go back directly to engineering site</t>
-  </si>
-  <si>
-    <t>Information grouped well, scroll layout is done well</t>
-  </si>
-  <si>
     <t xml:space="preserve">High value information about registration, programs, etc. </t>
+  </si>
+  <si>
+    <t>Nice and similar theme until it goes to an external site (UofS or not, just not engineering)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall </t>
+  </si>
+  <si>
+    <t>Good, buttons and drop downs work as expected</t>
+  </si>
+  <si>
+    <t>Not easy to go back directly to engineering site. Scrolling images are not consistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall layout, buttons, good grouping of information, etc. </t>
+  </si>
+  <si>
+    <t>Changing layouts can be a bit off putting. So can site changes</t>
+  </si>
+  <si>
+    <t>Appealing colours, good on the eyes, a lot of good information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lots of different information to access </t>
+  </si>
+  <si>
+    <t>Information grouped well, scroll layout is done well for the most part</t>
+  </si>
+  <si>
+    <t>Differences in layout lowers the flow/feel quality</t>
+  </si>
+  <si>
+    <t>Good, easy to use, lots of information. Some small concerns with layouts and consistancy</t>
+  </si>
+  <si>
+    <t>Important information at the top/easy to find</t>
+  </si>
+  <si>
+    <t>Really good, but leaving the engineering page hurts it</t>
+  </si>
+  <si>
+    <t>Organized well overall, but can be inconsistant</t>
+  </si>
+  <si>
+    <t>Not easy to go back directly to engineering site. Inconsistancies in layout/conent</t>
+  </si>
+  <si>
+    <t>Makes sense with what things I am searching for, buttons, drop downs, etc. are easy to use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information grouped well, scroll layout is done well for the most part. </t>
+  </si>
+  <si>
+    <t>Lots of good information, but can seem in the room place. i.e. Current program info under "Programs" not "Students"</t>
+  </si>
+  <si>
+    <t>Differences in layout lowers the flow/feel quality, but easy to learn if using a few times</t>
+  </si>
+  <si>
+    <t>High value information about programs, future programs, classes, etc.</t>
+  </si>
+  <si>
+    <t>Helpful for checking out classes, future programs, etc. but consistancy can negatively affect usability</t>
+  </si>
+  <si>
+    <t>Lots of good information on current and future courses/programs</t>
+  </si>
+  <si>
+    <t>Some information was not where I thought it would be</t>
+  </si>
+  <si>
+    <t>Nice and similar theme until it goes to an external site (UofS or not, just not engineering), easy to use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall layout, buttons, good grouping of information, easy to use etc. </t>
+  </si>
+  <si>
+    <t>Not much/for information on faculty/staff</t>
+  </si>
+  <si>
+    <t>Lots of good information related to students, but not much relating to staff. Lots of other information</t>
+  </si>
+  <si>
+    <t>Really good, but depending on what is needed, may not be there</t>
+  </si>
+  <si>
+    <t>Quick access to lots of information/easy to find</t>
+  </si>
+  <si>
+    <t>May not have the best information on specific things/may lack it altogether</t>
+  </si>
+  <si>
+    <t>Depending on what the is needed can be very desired or not at all (see other points)</t>
+  </si>
+  <si>
+    <t>Changing layouts can be a bit off putting. So can site changes. Could be lacking info</t>
+  </si>
+  <si>
+    <t>High value information about a lot of student related topics and other topics, but lacking specifically for staff</t>
+  </si>
+  <si>
+    <t>University of Saskatchewan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,8 +201,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,8 +222,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -158,8 +252,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -195,8 +315,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -213,8 +393,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="95">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -232,6 +418,36 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -249,6 +465,36 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -578,376 +824,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:K25"/>
+  <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="11" width="25.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="8" width="25.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11">
-      <c r="C2" s="1" t="s">
+    <row r="1" spans="2:8" ht="40" customHeight="1">
+      <c r="B1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="60" customHeight="1">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="60" customHeight="1">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="60" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="60" customHeight="1">
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="60" customHeight="1">
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="60" customHeight="1">
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="60" customHeight="1">
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="80" customHeight="1">
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="75" customHeight="1">
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="3:11" ht="60" customHeight="1">
-      <c r="C3" s="2" t="s">
+      <c r="G17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="60" customHeight="1">
+      <c r="B18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="60" customHeight="1">
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="3:11" ht="60" customHeight="1">
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="3:11" ht="60" customHeight="1">
-      <c r="C5" s="2" t="s">
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="60" customHeight="1">
+      <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="C20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="7" spans="3:11">
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" ht="60" customHeight="1">
-      <c r="C8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="3:11" ht="60" customHeight="1">
-      <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="3:11" ht="60" customHeight="1">
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="12" spans="3:11">
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" ht="60" customHeight="1">
-      <c r="C13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="3:11" ht="60" customHeight="1">
-      <c r="C14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="3:11" ht="60" customHeight="1">
-      <c r="C15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="17" spans="3:11">
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" ht="60" customHeight="1">
-      <c r="C18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" ht="60" customHeight="1">
-      <c r="C19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" ht="60" customHeight="1">
-      <c r="C20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="22" spans="3:11">
-      <c r="C22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" ht="60" customHeight="1">
-      <c r="C23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" ht="60" customHeight="1">
-      <c r="C24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" ht="60" customHeight="1">
-      <c r="C25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
